--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>810405.3786842164</v>
+        <v>807745.9879824963</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11338326.85058451</v>
+        <v>11338326.8505845</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>254.9769672920038</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>328.2754700208193</v>
+        <v>13.36947747424265</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>319.6758027219778</v>
       </c>
       <c r="I2" t="n">
         <v>135.9438818439017</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.42897189744249</v>
+        <v>28.42897189744248</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.9659064044098</v>
       </c>
       <c r="T2" t="n">
         <v>214.6330037351249</v>
@@ -716,13 +716,13 @@
         <v>251.1909921045651</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,13 +747,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>96.87005768501137</v>
       </c>
       <c r="G3" t="n">
         <v>136.3091318498218</v>
       </c>
       <c r="H3" t="n">
-        <v>54.04630505407908</v>
+        <v>102.245459762452</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>142.3927733934033</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.1237854589683</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.04857142269702</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.54637954072476</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>224.2403064031859</v>
       </c>
       <c r="U4" t="n">
-        <v>184.7182853991366</v>
+        <v>286.2717278710641</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.18930296733506</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>130.4438898689919</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>147.6143169751139</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -993,7 +993,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>181.1549927081308</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>176.902991630146</v>
+        <v>206.3137109670453</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>178.7214297748855</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.5235404623155</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>99.87491873864049</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.5761046894317</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>133.8057593248841</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>307.6000736915341</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615225</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812554</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530801</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075614</v>
+        <v>123.6502311075613</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>90.32387035784994</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793324</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740353</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>20.92847288552921</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>74.20064764874508</v>
+        <v>145.4210480229274</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795643</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326504009</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>47.16611136584764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365871</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>71.79687029691078</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>32.81060261323938</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881291</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>3.006892987834117</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>99.65140663107593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>112.3085276221493</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>114.8498234654387</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503971</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797025</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>62.36981422367135</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>912.8889761424418</v>
+        <v>917.7069662186045</v>
       </c>
       <c r="C2" t="n">
-        <v>912.8889761424418</v>
+        <v>917.7069662186045</v>
       </c>
       <c r="D2" t="n">
-        <v>912.8889761424418</v>
+        <v>917.7069662186045</v>
       </c>
       <c r="E2" t="n">
-        <v>527.1007235441975</v>
+        <v>531.9187136203602</v>
       </c>
       <c r="F2" t="n">
-        <v>520.1552227949941</v>
+        <v>524.9732128711568</v>
       </c>
       <c r="G2" t="n">
-        <v>188.5638389355806</v>
+        <v>511.4686901699016</v>
       </c>
       <c r="H2" t="n">
-        <v>188.5638389355806</v>
+        <v>188.5638389355805</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K2" t="n">
-        <v>397.7205401363253</v>
+        <v>397.7205401363254</v>
       </c>
       <c r="L2" t="n">
-        <v>879.82849628508</v>
+        <v>747.1668848225235</v>
       </c>
       <c r="M2" t="n">
-        <v>1432.873035231778</v>
+        <v>1300.211423769222</v>
       </c>
       <c r="N2" t="n">
-        <v>1980.234415463085</v>
+        <v>1847.572804000529</v>
       </c>
       <c r="O2" t="n">
-        <v>2451.904607643493</v>
+        <v>2319.242996180937</v>
       </c>
       <c r="P2" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.547488734045</v>
       </c>
       <c r="Q2" t="n">
         <v>2562.339328400155</v>
@@ -4355,25 +4355,25 @@
         <v>2533.623195170415</v>
       </c>
       <c r="S2" t="n">
-        <v>2533.623195170415</v>
+        <v>2366.990966479092</v>
       </c>
       <c r="T2" t="n">
-        <v>2316.822181296551</v>
+        <v>2150.189952605228</v>
       </c>
       <c r="U2" t="n">
-        <v>2063.093906443455</v>
+        <v>1896.461677752132</v>
       </c>
       <c r="V2" t="n">
-        <v>2063.093906443455</v>
+        <v>1565.398790408562</v>
       </c>
       <c r="W2" t="n">
-        <v>2063.093906443455</v>
+        <v>1565.398790408562</v>
       </c>
       <c r="X2" t="n">
-        <v>1689.628148182375</v>
+        <v>1565.398790408562</v>
       </c>
       <c r="Y2" t="n">
-        <v>1299.488816206564</v>
+        <v>1175.25945843275</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>872.6844575838013</v>
+        <v>872.6844575838018</v>
       </c>
       <c r="C3" t="n">
-        <v>698.2314283026743</v>
+        <v>698.2314283026748</v>
       </c>
       <c r="D3" t="n">
-        <v>549.2970186414231</v>
+        <v>549.2970186414235</v>
       </c>
       <c r="E3" t="n">
-        <v>390.0595636359675</v>
+        <v>390.059563635968</v>
       </c>
       <c r="F3" t="n">
-        <v>243.5250056628525</v>
+        <v>292.2110205197949</v>
       </c>
       <c r="G3" t="n">
-        <v>105.8390138953557</v>
+        <v>154.5250287522981</v>
       </c>
       <c r="H3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K3" t="n">
         <v>341.9645854074413</v>
       </c>
       <c r="L3" t="n">
-        <v>794.2749390385942</v>
+        <v>690.9002194532299</v>
       </c>
       <c r="M3" t="n">
-        <v>1355.329544196131</v>
+        <v>1270.704289679976</v>
       </c>
       <c r="N3" t="n">
-        <v>1491.637365688262</v>
+        <v>1881.561061772225</v>
       </c>
       <c r="O3" t="n">
         <v>1984.036293344365</v>
       </c>
       <c r="P3" t="n">
-        <v>2362.226775767269</v>
+        <v>2362.22677576727</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,19 +4440,19 @@
         <v>2174.055937741998</v>
       </c>
       <c r="U3" t="n">
-        <v>1945.9010585343</v>
+        <v>1945.901058534301</v>
       </c>
       <c r="V3" t="n">
         <v>1710.748950302558</v>
       </c>
       <c r="W3" t="n">
-        <v>1456.511593574356</v>
+        <v>1456.511593574357</v>
       </c>
       <c r="X3" t="n">
-        <v>1248.660093368823</v>
+        <v>1248.660093368824</v>
       </c>
       <c r="Y3" t="n">
-        <v>1040.899794603869</v>
+        <v>1040.89979460387</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.5090284322741</v>
+        <v>363.8897753077724</v>
       </c>
       <c r="C4" t="n">
-        <v>230.5090284322741</v>
+        <v>363.8897753077724</v>
       </c>
       <c r="D4" t="n">
-        <v>230.5090284322741</v>
+        <v>363.8897753077724</v>
       </c>
       <c r="E4" t="n">
-        <v>230.5090284322741</v>
+        <v>363.8897753077724</v>
       </c>
       <c r="F4" t="n">
-        <v>83.61908093436372</v>
+        <v>220.0586910720115</v>
       </c>
       <c r="G4" t="n">
-        <v>83.61908093436372</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>83.61908093436372</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>83.61908093436372</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K4" t="n">
         <v>128.9446319797722</v>
@@ -4501,37 +4501,37 @@
         <v>632.7309409968803</v>
       </c>
       <c r="O4" t="n">
-        <v>778.4183943752791</v>
+        <v>778.4183943752793</v>
       </c>
       <c r="P4" t="n">
-        <v>879.5584967969138</v>
+        <v>879.5584967969139</v>
       </c>
       <c r="Q4" t="n">
-        <v>865.875285139616</v>
+        <v>879.5584967969139</v>
       </c>
       <c r="R4" t="n">
-        <v>865.875285139616</v>
+        <v>879.5584967969139</v>
       </c>
       <c r="S4" t="n">
-        <v>865.875285139616</v>
+        <v>879.5584967969139</v>
       </c>
       <c r="T4" t="n">
-        <v>865.875285139616</v>
+        <v>653.0531367936958</v>
       </c>
       <c r="U4" t="n">
-        <v>679.2911584738215</v>
+        <v>363.8897753077724</v>
       </c>
       <c r="V4" t="n">
-        <v>679.2911584738215</v>
+        <v>363.8897753077724</v>
       </c>
       <c r="W4" t="n">
-        <v>679.2911584738215</v>
+        <v>363.8897753077724</v>
       </c>
       <c r="X4" t="n">
-        <v>451.3016075758042</v>
+        <v>363.8897753077724</v>
       </c>
       <c r="Y4" t="n">
-        <v>230.5090284322741</v>
+        <v>363.8897753077724</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1219.334020285774</v>
+        <v>1634.071242659839</v>
       </c>
       <c r="C5" t="n">
-        <v>1219.334020285774</v>
+        <v>1265.108725719427</v>
       </c>
       <c r="D5" t="n">
-        <v>861.0683216790234</v>
+        <v>1265.108725719427</v>
       </c>
       <c r="E5" t="n">
-        <v>475.2800690807791</v>
+        <v>879.3204731211832</v>
       </c>
       <c r="F5" t="n">
-        <v>64.29416429117158</v>
+        <v>468.3345683315757</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>239.8866855817394</v>
@@ -4574,16 +4574,16 @@
         <v>1196.167056847984</v>
       </c>
       <c r="M5" t="n">
-        <v>1523.345083077018</v>
+        <v>1382.866469673392</v>
       </c>
       <c r="N5" t="n">
-        <v>1717.679295969</v>
+        <v>1659.267837608651</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2206.429042375728</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2317.163367625255</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2274.36278597881</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.647625145306</v>
+        <v>2020.671082723961</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.584737801735</v>
+        <v>2020.671082723961</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.816082531621</v>
+        <v>2020.671082723961</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.816082531621</v>
+        <v>2020.671082723961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.676750555809</v>
+        <v>2020.671082723961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>744.3105847037984</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>595.3761750425472</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>436.1387200370916</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>289.6041620639766</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313601</v>
+        <v>118.8546062313602</v>
       </c>
       <c r="L6" t="n">
-        <v>623.2161460974787</v>
+        <v>544.5457749724848</v>
       </c>
       <c r="M6" t="n">
-        <v>1257.395129876517</v>
+        <v>724.0431113270896</v>
       </c>
       <c r="N6" t="n">
-        <v>1891.574113655555</v>
+        <v>1358.222095106128</v>
       </c>
       <c r="O6" t="n">
-        <v>2115.634618717341</v>
+        <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4674,22 +4674,22 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
         <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.8623808042117</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>477.9261978763049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>477.9261978763049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>330.0131042939117</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>330.0131042939117</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>330.0131042939117</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>175.7584611936768</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>713.2632219991558</v>
       </c>
       <c r="T7" t="n">
-        <v>825.5522713397128</v>
+        <v>487.6340253115208</v>
       </c>
       <c r="U7" t="n">
-        <v>825.5522713397128</v>
+        <v>487.6340253115208</v>
       </c>
       <c r="V7" t="n">
-        <v>825.5522713397128</v>
+        <v>487.6340253115208</v>
       </c>
       <c r="W7" t="n">
-        <v>825.5522713397128</v>
+        <v>487.6340253115208</v>
       </c>
       <c r="X7" t="n">
-        <v>825.5522713397128</v>
+        <v>259.6444744135034</v>
       </c>
       <c r="Y7" t="n">
-        <v>646.8623808042117</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2106.577233583055</v>
+        <v>970.5047989601121</v>
       </c>
       <c r="C8" t="n">
-        <v>1926.050536840746</v>
+        <v>601.5422820197005</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>236.3310826637465</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4808,16 +4808,16 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764997</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>2106.577233583055</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>2106.577233583055</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4863,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.0498276483066</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4990,22 +4990,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1338.933615932702</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>1084.249127726815</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>794.831957689854</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>566.8424067918367</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>346.0498276483066</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.468935552203</v>
+        <v>1485.490329133571</v>
       </c>
       <c r="C11" t="n">
-        <v>1554.311602900804</v>
+        <v>1116.527812193159</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.045904294054</v>
+        <v>1116.527812193159</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>805.8206670501953</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044465</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="G11" t="n">
-        <v>370.444234945592</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592061</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592061</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706881</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656939</v>
+        <v>695.1615405656956</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625327</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087827</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484037</v>
+        <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535291</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479991</v>
+        <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464055</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796031</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345372</v>
+        <v>3776.999350345376</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345372</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3523.505408466901</v>
+        <v>3319.526802048269</v>
       </c>
       <c r="V11" t="n">
-        <v>3192.44252112333</v>
+        <v>2988.463914704698</v>
       </c>
       <c r="W11" t="n">
-        <v>2839.673865853216</v>
+        <v>2635.695259434584</v>
       </c>
       <c r="X11" t="n">
-        <v>2466.208107592136</v>
+        <v>2262.229501173504</v>
       </c>
       <c r="Y11" t="n">
-        <v>2076.068775616324</v>
+        <v>1872.090169197692</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592061</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870408</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046647</v>
+        <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626155</v>
+        <v>889.4740370626171</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019143</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720352</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2401.180957052874</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>485.6231751109174</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>316.6869921830105</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="D13" t="n">
-        <v>225.4507594983137</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="E13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="F13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592061</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648139</v>
+        <v>364.1690246648144</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344801</v>
+        <v>710.5788654344809</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.94034901072</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742805</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742805</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276101</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1949.247121276101</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1660.155428225552</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1405.470940019665</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1116.053769982705</v>
+        <v>814.5429355999231</v>
       </c>
       <c r="X13" t="n">
-        <v>888.0642190846872</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>667.2716399411571</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876695</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597626</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474269</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474269</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>114.9565346495165</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>114.9565346495165</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>114.9565346495165</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5446,7 +5446,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179092</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958742</v>
+        <v>538.7363435406072</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679674</v>
+        <v>538.7363435406072</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556317</v>
+        <v>388.6197041282715</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732385</v>
+        <v>240.7066105458783</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797189</v>
@@ -5671,13 +5671,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261139</v>
+        <v>720.3848083708469</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,19 +5747,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622263</v>
+        <v>513.8536007400753</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219837</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5908,22 +5908,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138453</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.502065570315</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>408.9258559154851</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797189</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6248,28 +6248,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273906</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1172.569791909146</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y28" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.963121559762</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>408.9258559154851</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797189</v>
@@ -6619,10 +6619,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6631,7 +6631,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
         <v>2035.089393279802</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,19 +7008,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438171</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6605733532798</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253733</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429801</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429801</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G37" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2083.619588293477</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1794.544361637675</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1539.859873431788</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1250.442703394827</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1022.45315249681</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y37" t="n">
-        <v>801.6605733532798</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>835.5837926935561</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>666.6476097656492</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>666.6476097656492</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>518.7345161832561</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7342,40 +7342,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,19 +7488,19 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038343</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,43 +7640,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466574</v>
@@ -7688,10 +7688,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273906</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>700.7543264856226</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856226</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>550.6376870732869</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
         <v>2035.089393279803</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2383.963271233118</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2383.963271233118</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2164.361806256059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1620.60209139437</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1103.195370459392</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.4027913158624</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.962875130995</v>
+        <v>16.96287513099497</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>283.6595868104943</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7994,10 +7994,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>64.77800828641828</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.5353546335304</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>29.11089843987692</v>
+        <v>29.11089843987691</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>266.421436631374</v>
       </c>
       <c r="M3" t="n">
-        <v>446.7662101447385</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8222,16 +8222,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>141.897589296592</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>82.89611620532975</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8298,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>291.3753239650815</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378117</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933067</v>
+        <v>439.9214566933068</v>
       </c>
       <c r="O6" t="n">
-        <v>65.20019433638902</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111055</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154988</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-4.137014079821688e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>-9.252921777294408e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>231.4671324461235</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>74.3302963807277</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184577</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58.29160266036241</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927382</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905251</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811039</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459251</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465658</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>60.33736343303632</v>
+        <v>81.26583631856253</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.22040037418617</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253047</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844822696</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.26785128072153</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016416</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345295036</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6085800303775</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>253.7123957233516</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>145.6085800303782</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>152.4862366927521</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>105.0969227051389</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>30.57122455749253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409392995</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.26526345294948</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.005432486450445</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>904131.2078512706</v>
+        <v>904131.2078512709</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353933</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>995463.9682353935</v>
+        <v>995463.9682353933</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353933</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353931</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353931</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787485</v>
@@ -26320,19 +26320,19 @@
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.3532440578</v>
+        <v>384609.3532440579</v>
       </c>
       <c r="F2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372533</v>
@@ -26341,7 +26341,7 @@
         <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372532</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>678074.6944992426</v>
+        <v>678074.6944992427</v>
       </c>
       <c r="C3" t="n">
-        <v>102513.4470555635</v>
+        <v>102513.4470555634</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545757</v>
+        <v>313577.1573545771</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704306</v>
+        <v>189308.2687704292</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.4037127304</v>
+        <v>81897.40371273069</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202402</v>
+        <v>49839.57413202377</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220641.3432238819</v>
+        <v>220641.3432238818</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26424,40 +26424,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7401.949902073127</v>
+        <v>7401.949902073128</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.368461719669</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719641</v>
+      </c>
+      <c r="J4" t="n">
         <v>7507.368461719656</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>7507.368461719646</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719638</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.368461719636</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="I4" t="n">
-        <v>7507.368461719643</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719647</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719644</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719635</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>7507.368461719656</v>
       </c>
-      <c r="N4" t="n">
-        <v>7507.368461719653</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719667</v>
-      </c>
       <c r="P4" t="n">
-        <v>7507.368461719641</v>
+        <v>7507.368461719636</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>83058.74367843161</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738555</v>
+        <v>85137.48506738564</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-550727.8522228074</v>
+        <v>-550727.8522228072</v>
       </c>
       <c r="C6" t="n">
-        <v>44707.91068398059</v>
+        <v>44707.91068398063</v>
       </c>
       <c r="D6" t="n">
-        <v>-86689.716330867</v>
+        <v>-86689.71633086696</v>
       </c>
       <c r="E6" t="n">
-        <v>-21507.23907997659</v>
+        <v>-21728.37039395267</v>
       </c>
       <c r="F6" t="n">
-        <v>125813.7977811959</v>
+        <v>125779.0598557615</v>
       </c>
       <c r="G6" t="n">
-        <v>315122.0665516267</v>
+        <v>315087.3286261908</v>
       </c>
       <c r="H6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261907</v>
       </c>
       <c r="I6" t="n">
-        <v>315122.0665516265</v>
+        <v>315087.3286261907</v>
       </c>
       <c r="J6" t="n">
-        <v>147516.888741644</v>
+        <v>147482.1508162083</v>
       </c>
       <c r="K6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261907</v>
       </c>
       <c r="L6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261905</v>
       </c>
       <c r="M6" t="n">
-        <v>233224.662838896</v>
+        <v>233189.92491346</v>
       </c>
       <c r="N6" t="n">
-        <v>265282.4924196025</v>
+        <v>265247.754494167</v>
       </c>
       <c r="O6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261907</v>
       </c>
       <c r="P6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261907</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719843</v>
+        <v>480.8984351719844</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26744,7 +26744,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490077</v>
+        <v>969.2208239490087</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26808,13 +26808,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719843</v>
+        <v>480.8984351719844</v>
       </c>
       <c r="C3" t="n">
-        <v>112.5776651660808</v>
+        <v>112.5776651660807</v>
       </c>
       <c r="D3" t="n">
         <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974097</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.734263126725</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848969</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506409</v>
+        <v>203.4874641506399</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489687</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506409</v>
+        <v>203.4874641506399</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848969</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506409</v>
+        <v>203.4874641506399</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>127.7568743714767</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>85.09400745342333</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>319.6758027219779</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.9659064044098</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>48.1991547083725</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>48.19915470837294</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>53.78292798254643</v>
+        <v>53.78292798254642</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.028274629527914</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1237854589683</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>154.5170303828789</v>
@@ -27558,7 +27558,7 @@
         <v>129.3715892953087</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>32.04857142269701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.54637954072474</v>
       </c>
       <c r="R4" t="n">
         <v>138.3012002237165</v>
@@ -27588,10 +27588,10 @@
         <v>208.9037734431248</v>
       </c>
       <c r="T4" t="n">
-        <v>224.2403064031859</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>101.5534424719275</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.5445386961455</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>82.20797324597413</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>25.09418201320187</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>70.53999045278877</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.68166172194879</v>
+        <v>12.27094238504949</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>186.5514619961221</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.0241623106385</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>186.3522353825601</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.561538634396328</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-3.353794564184568e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.395446886618932e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28810,64 +28810,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>-9.003997547551989e-13</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.751381063403296e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31042,10 +31042,10 @@
         <v>1.933260040892398</v>
       </c>
       <c r="H2" t="n">
-        <v>19.79899939378927</v>
+        <v>19.79899939378928</v>
       </c>
       <c r="I2" t="n">
-        <v>74.53200772650423</v>
+        <v>74.53200772650425</v>
       </c>
       <c r="J2" t="n">
         <v>164.0830293956913</v>
@@ -31057,16 +31057,16 @@
         <v>305.0829339031274</v>
       </c>
       <c r="M2" t="n">
-        <v>339.4635471553475</v>
+        <v>339.4635471553476</v>
       </c>
       <c r="N2" t="n">
         <v>344.9564222465331</v>
       </c>
       <c r="O2" t="n">
-        <v>325.7325677149092</v>
+        <v>325.7325677149093</v>
       </c>
       <c r="P2" t="n">
-        <v>278.0052104553781</v>
+        <v>278.0052104553782</v>
       </c>
       <c r="Q2" t="n">
         <v>208.7703352409191</v>
@@ -31078,7 +31078,7 @@
         <v>44.05416318183556</v>
       </c>
       <c r="T2" t="n">
-        <v>8.462845829006476</v>
+        <v>8.462845829006477</v>
       </c>
       <c r="U2" t="n">
         <v>0.1546608032713918</v>
@@ -31121,13 +31121,13 @@
         <v>1.034385313388797</v>
       </c>
       <c r="H3" t="n">
-        <v>9.98998447404443</v>
+        <v>9.989984474044432</v>
       </c>
       <c r="I3" t="n">
-        <v>35.61370486886865</v>
+        <v>35.61370486886866</v>
       </c>
       <c r="J3" t="n">
-        <v>97.72672822678977</v>
+        <v>97.72672822678979</v>
       </c>
       <c r="K3" t="n">
         <v>167.0305442238391</v>
@@ -31136,13 +31136,13 @@
         <v>224.5931795583876</v>
       </c>
       <c r="M3" t="n">
-        <v>262.0896471687314</v>
+        <v>262.0896471687315</v>
       </c>
       <c r="N3" t="n">
         <v>269.0263802572028</v>
       </c>
       <c r="O3" t="n">
-        <v>246.1065793657984</v>
+        <v>246.1065793657985</v>
       </c>
       <c r="P3" t="n">
         <v>197.5222270803571</v>
@@ -31154,7 +31154,7 @@
         <v>64.22262498391144</v>
       </c>
       <c r="S3" t="n">
-        <v>19.21325351842785</v>
+        <v>19.21325351842786</v>
       </c>
       <c r="T3" t="n">
         <v>4.169298697387297</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8671938994904634</v>
+        <v>0.8671938994904635</v>
       </c>
       <c r="H4" t="n">
-        <v>7.710142124560671</v>
+        <v>7.710142124560672</v>
       </c>
       <c r="I4" t="n">
-        <v>26.07888563194958</v>
+        <v>26.07888563194959</v>
       </c>
       <c r="J4" t="n">
-        <v>61.31060869397576</v>
+        <v>61.31060869397577</v>
       </c>
       <c r="K4" t="n">
         <v>100.7521639589829</v>
@@ -31227,7 +31227,7 @@
         <v>104.8831603529193</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.61566371096963</v>
+        <v>72.61566371096964</v>
       </c>
       <c r="R4" t="n">
         <v>38.99219115345301</v>
@@ -31236,10 +31236,10 @@
         <v>15.11282459384744</v>
       </c>
       <c r="T4" t="n">
-        <v>3.705283025095615</v>
+        <v>3.705283025095616</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0473014854267526</v>
+        <v>0.04730148542675261</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869138</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639233</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285601</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203911</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975119</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544647</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795455</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180157</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956794</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.010221962035</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825962</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696625</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968216</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.386650448149531</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58595284985857</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837093</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469199</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193134</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598376</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747741</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821471</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340497</v>
+        <v>267.5398078833327</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924466</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>293.7693957029169</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627647</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535154</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092165</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798447</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329023</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100537</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770059</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531025</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806235</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493061</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194573</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811697</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493535</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377472</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>650.5350891770654</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,22 +32309,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32789,16 +32789,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,25 +33020,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33260,28 +33260,28 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33734,16 +33734,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614911</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>539.5330155967679</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,22 +34208,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
@@ -34442,22 +34442,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>349.9734884528507</v>
+        <v>349.9734884528508</v>
       </c>
       <c r="L2" t="n">
-        <v>486.9777334835906</v>
+        <v>352.9761057436344</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6308474209072</v>
+        <v>558.6308474209073</v>
       </c>
       <c r="N2" t="n">
         <v>552.8902830619263</v>
       </c>
       <c r="O2" t="n">
-        <v>476.4345375559678</v>
+        <v>476.4345375559679</v>
       </c>
       <c r="P2" t="n">
-        <v>111.5502229865269</v>
+        <v>46.77221470010863</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>198.7796360263743</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>293.6543422620588</v>
       </c>
       <c r="L3" t="n">
-        <v>456.8791450819726</v>
+        <v>352.4602364098874</v>
       </c>
       <c r="M3" t="n">
-        <v>566.7218233914516</v>
+        <v>585.6606769967131</v>
       </c>
       <c r="N3" t="n">
-        <v>137.6846681738695</v>
+        <v>617.0270425174231</v>
       </c>
       <c r="O3" t="n">
-        <v>497.3726541980835</v>
+        <v>103.510334921354</v>
       </c>
       <c r="P3" t="n">
         <v>382.0105883059641</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.48267213310005</v>
+        <v>78.48267213310007</v>
       </c>
       <c r="L4" t="n">
         <v>156.5181073718347</v>
@@ -34942,16 +34942,16 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>330.4828547768018</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>279.1933009447059</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35018,22 +35018,22 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>429.9910795364895</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>226.3237424866523</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35264,13 +35264,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>474.3640795072286</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937048</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525313</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844774</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681823</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214247</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739927</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067654</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081467</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.0136023555304</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526467</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854786</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036948999</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601288</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507165</v>
+        <v>136.1980957999995</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480022</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
-        <v>159.7949882885867</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186259</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070195</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703698</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388465</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323311</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946632</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141996</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776291</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>519.1933770937321</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L20" t="n">
         <v>632.079992146269</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37163,13 +37163,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396396</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37382,16 +37382,16 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394727</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37549,7 +37549,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902925</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37637,13 +37637,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>405.5586081824376</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,13 +38184,13 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
